--- a/QRPH/mADX/StructureDefinition-mADX-MeasureReport.xlsx
+++ b/QRPH/mADX/StructureDefinition-mADX-MeasureReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-comment</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T16:19:35-05:00</t>
+    <t>2025-09-17T13:26:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -536,7 +536,7 @@
     <t>MeasureReport.measure</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Measure)
+    <t xml:space="preserve">canonical(Measure|4.0.1)
 </t>
   </si>
   <si>
@@ -552,7 +552,7 @@
     <t>MeasureReport.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Location|Device|RelatedPerson|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>MeasureReport.reporter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
     <t>The type of population (e.g. initial, numerator, denominator, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-population</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-population|4.0.1</t>
   </si>
   <si>
     <t>MeasureReport.group.population.count</t>
@@ -919,7 +919,7 @@
     <t>MeasureReport.group.population.subjectResults</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(List)
+    <t xml:space="preserve">Reference(List|4.0.1)
 </t>
   </si>
   <si>
@@ -963,7 +963,7 @@
     <t>MeasureReport.group.stratifier.code</t>
   </si>
   <si>
-    <t>Indicates the disaggregation criterion</t>
+    <t>What stratifier of the group</t>
   </si>
   <si>
     <t>The meaning of this stratifier, as defined in the measure definition.</t>
@@ -972,7 +972,7 @@
     <t>MeasureReport.group.stratifier.stratum</t>
   </si>
   <si>
-    <t>Stratum results, one for each unique value, or set of values, in the stratifier, or stratifier components</t>
+    <t>Indicates the stratum results</t>
   </si>
   <si>
     <t>This element contains the results for a single stratum within the stratifier. For example, when stratifying on administrative gender, there will be four strata, one for each possible gender value.</t>
@@ -990,7 +990,7 @@
     <t>MeasureReport.group.stratifier.stratum.value</t>
   </si>
   <si>
-    <t>Represents a disaggregation value for the disaggregation criterion reported</t>
+    <t>The stratum value, e.g. male</t>
   </si>
   <si>
     <t>The value for this stratum, expressed as a CodeableConcept. When defining stratifiers on complex values, the value must be rendered such that the value for each stratum within the stratifier is unique.</t>
@@ -999,34 +999,34 @@
     <t>MeasureReport.group.stratifier.stratum.component</t>
   </si>
   <si>
+    <t>Stratifier component values</t>
+  </si>
+  <si>
+    <t>A stratifier component value.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.code</t>
+  </si>
+  <si>
     <t>Represents a disaggregation dimension for the disaggregation criterion reported</t>
   </si>
   <si>
-    <t>A stratifier component value.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.code</t>
-  </si>
-  <si>
-    <t>What stratifier component of the group</t>
-  </si>
-  <si>
     <t>The code for the stratum component value.</t>
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.component.value</t>
   </si>
   <si>
-    <t>The stratum component value, e.g. male</t>
+    <t>Represents a disaggregation value for the disaggregation dimension reported</t>
   </si>
   <si>
     <t>The stratum component value.</t>
@@ -1196,7 +1196,7 @@
     <t>MeasureReport.evaluatedResource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1548,17 +1548,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="64.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.25390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1567,24 +1567,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="134.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.39453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="60.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="120.58984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="54.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="60.1015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3542,13 +3542,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -6662,10 +6662,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7204,7 +7204,7 @@
         <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>77</v>
@@ -7304,13 +7304,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
